--- a/src/main/resources/template/selfCheckList.xlsx
+++ b/src/main/resources/template/selfCheckList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\git\fosslight-public\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/min/Min/ui_2.0/fosslight/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA404568-8239-41E4-B5FA-09F77FFF25B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522FA2B7-3872-8B43-8365-B06868F4F490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,6 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>BOM (Disclose)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CVSS Score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -47,12 +43,16 @@
     <t>Project Version</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>SBOM (Disclose)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,9 +237,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,26 +272,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,26 +307,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,20 +486,20 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,13 +507,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -556,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -569,6 +535,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Aptos"&amp;12&amp;K000000 LGE Internal Use Only&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -578,10 +547,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Aptos"&amp;12&amp;K000000 LGE Internal Use Only&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -591,9 +563,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Aptos"&amp;12&amp;K000000 LGE Internal Use Only&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>